--- a/resources/箱包/Handbags & Messenger Bags.xlsx
+++ b/resources/箱包/Handbags & Messenger Bags.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>Platform Shoes</t>
   </si>
@@ -34,14 +34,7 @@
     <t>Shoulder Bag</t>
   </si>
   <si>
-    <t>风格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Style</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Neoprene</t>
@@ -96,10 +89,6 @@
     <t>Plastic</t>
   </si>
   <si>
-    <t>材料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Gender</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -114,10 +103,6 @@
     <t>Wristlet</t>
   </si>
   <si>
-    <t>风格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Wood</t>
   </si>
   <si>
@@ -130,13 +115,17 @@
   </si>
   <si>
     <t>Paper</t>
+  </si>
+  <si>
+    <t>样式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +168,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -222,19 +204,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="44">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -332,84 +365,6 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="0"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -701,19 +656,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <name val="Microsoft YaHei UI"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="0"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
@@ -802,6 +744,32 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color theme="0"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Microsoft YaHei UI"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <name val="Microsoft YaHei UI"/>
         <scheme val="none"/>
       </font>
@@ -924,107 +892,116 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表15_7" displayName="表15_7" ref="A1:B9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表15_7" displayName="表15_7" ref="A1:B12" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:B12"/>
+  <sortState ref="A2:B12">
+    <sortCondition ref="A1:A30"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Material" dataDxfId="16"/>
-    <tableColumn id="2" name="材料" dataDxfId="15"/>
+    <tableColumn id="1" name="Material" dataDxfId="41"/>
+    <tableColumn id="2" name="材料" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表27_32" displayName="表27_32" ref="A1:E2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Style" dataDxfId="8"/>
+    <tableColumn id="2" name="Material" dataDxfId="7"/>
+    <tableColumn id="5" name="Gender" dataDxfId="6"/>
+    <tableColumn id="3" name="Area" dataDxfId="5"/>
+    <tableColumn id="4" name="Country/Region" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A12:B20" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="A12:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="表26_11" displayName="表26_11" ref="A14:B21" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A14:B21"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Material" dataDxfId="42"/>
-    <tableColumn id="2" name="材料" dataDxfId="41"/>
+    <tableColumn id="1" name="Style" dataDxfId="1"/>
+    <tableColumn id="2" name="样式" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表26" displayName="表26" ref="A22:B27" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A22:B27"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Style" dataDxfId="38"/>
-    <tableColumn id="2" name="风格" dataDxfId="37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15" displayName="表15" ref="A4:A11" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A4:A11"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Material" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表27" displayName="表27" ref="A1:E8" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:E8"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表26" displayName="表26" ref="A13:A18" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A13:A18"/>
+  <tableColumns count="1">
     <tableColumn id="1" name="Style" dataDxfId="34"/>
-    <tableColumn id="2" name="Material" dataDxfId="33"/>
-    <tableColumn id="5" name="Gender" dataDxfId="32"/>
-    <tableColumn id="3" name="Area" dataDxfId="31"/>
-    <tableColumn id="4" name="Country/Region" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表15_12" displayName="表15_12" ref="A7:B15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A7:B15"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Material" dataDxfId="27"/>
-    <tableColumn id="2" name="材料" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表27" displayName="表27" ref="A1:E2" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Style" dataDxfId="31"/>
+    <tableColumn id="2" name="Material" dataDxfId="30"/>
+    <tableColumn id="5" name="Gender" dataDxfId="29"/>
+    <tableColumn id="3" name="Area" dataDxfId="28"/>
+    <tableColumn id="4" name="Country/Region" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表28" displayName="表28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
-    <tableColumn id="2" name="Material" dataDxfId="22"/>
-    <tableColumn id="3" name="Gender" dataDxfId="21"/>
-    <tableColumn id="4" name="Area" dataDxfId="20"/>
-    <tableColumn id="5" name="Country/Region" dataDxfId="19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表15_12" displayName="表15_12" ref="A4:A11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A4:A11"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Material" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表15_30" displayName="表15_30" ref="A12:B20" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A12:B20"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Material" dataDxfId="12"/>
-    <tableColumn id="2" name="材料" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表28" displayName="表28" ref="A1:D2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
+    <tableColumn id="2" name="Material" dataDxfId="20"/>
+    <tableColumn id="3" name="Gender" dataDxfId="19"/>
+    <tableColumn id="4" name="Area" dataDxfId="18"/>
+    <tableColumn id="5" name="Country/Region" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表26_31" displayName="表26_31" ref="A22:B26" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A22:B26"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Style" dataDxfId="8"/>
-    <tableColumn id="2" name="风格" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表15_30" displayName="表15_30" ref="A4:A11" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A4:A11"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Material" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="表27_32" displayName="表27_32" ref="A1:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E8"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Style" dataDxfId="4"/>
-    <tableColumn id="2" name="Material" dataDxfId="3"/>
-    <tableColumn id="5" name="Gender" dataDxfId="2"/>
-    <tableColumn id="3" name="Area" dataDxfId="1"/>
-    <tableColumn id="4" name="Country/Region" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表26_31" displayName="表26_31" ref="A13:A17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A13:A17"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Style" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1317,10 +1294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1331,23 +1308,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1357,49 +1334,118 @@
     </row>
     <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B20"/>
+      <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1414,19 +1460,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1436,127 +1482,73 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1574,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1588,17 +1580,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>17</v>
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
@@ -1607,61 +1599,45 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1675,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1693,19 +1669,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1715,123 +1691,69 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
